--- a/reconstruction-tools-assessment/supplementary material/S1_table.xlsx
+++ b/reconstruction-tools-assessment/supplementary material/S1_table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Research_Projects\Review_reconstruction\manuscript\supplementary material\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9A9D37-A40B-4883-AA34-CAE8908F816A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4302" windowHeight="0"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S1 table" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="34">
   <si>
     <t>Tool</t>
   </si>
@@ -114,12 +115,24 @@
   </si>
   <si>
     <t>S1 Table. List of genome-scale metabolic reconstruction tools and databases.</t>
+  </si>
+  <si>
+    <t>rBioNet</t>
+  </si>
+  <si>
+    <t>MetExplore</t>
+  </si>
+  <si>
+    <t>Collaborative manual curation, visualization</t>
+  </si>
+  <si>
+    <t>Assemble of reconstructions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -550,17 +563,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="123" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="123" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="13.41796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.15625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.7890625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.5234375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.41796875" bestFit="1" customWidth="1"/>
@@ -865,6 +878,40 @@
         <v>7</v>
       </c>
     </row>
+    <row r="20" spans="1:5" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2018</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2011</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
